--- a/DAL/conversions.xlsx
+++ b/DAL/conversions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fun projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fun projects\RecipeConverter\RecipeConvertor\DAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAF3605-92A3-4DE9-B51F-FD094572D39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55E3030E-1FF3-46AE-9AA2-B35C66351526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,24 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
-  <si>
-    <t>Grams</t>
-  </si>
-  <si>
-    <t>Ingredients</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>flour</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>1 cup</t>
-  </si>
-  <si>
-    <t>Ounces</t>
   </si>
   <si>
     <t>ingredient</t>
@@ -194,19 +179,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{888DEC4E-774F-40DB-AADF-C568BD622999}" name="טבלה1" displayName="טבלה1" ref="E4:H29" totalsRowShown="0">
-  <autoFilter ref="E4:H29" xr:uid="{888DEC4E-774F-40DB-AADF-C568BD622999}"/>
-  <tableColumns count="4">
-    <tableColumn id="9" xr3:uid="{13DCC47F-3A3A-4A77-BF7F-C57A63103B6E}" name="Ounces"/>
-    <tableColumn id="4" xr3:uid="{F2E83F8A-8943-4833-B47B-3D3EC6A0DB8F}" name="Grams"/>
-    <tableColumn id="5" xr3:uid="{C5B15ADC-E3A7-4E5E-8751-90B8F07D08F8}" name="Volume"/>
-    <tableColumn id="6" xr3:uid="{45385CA8-F2F8-4A97-A50D-690D0E7DFEF3}" name="Ingredients"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4:M60"/>
+  <dimension ref="A26:D54"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -486,356 +458,331 @@
     <col min="9" max="9" width="8.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B27">
+        <v>227</v>
+      </c>
+      <c r="C27">
+        <v>14.2</v>
+      </c>
+      <c r="D27">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>198</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>198</v>
+      </c>
+      <c r="C30">
+        <v>12.5</v>
+      </c>
+      <c r="D30">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="F5">
-        <v>140</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B33">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J32" t="s">
-        <v>6</v>
-      </c>
-      <c r="K32" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>208</v>
+      </c>
+      <c r="C37">
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>125</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40">
+        <v>216</v>
+      </c>
+      <c r="C40">
+        <v>14</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41">
+        <v>230</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42">
+        <v>198</v>
+      </c>
+      <c r="C42">
+        <v>14.15</v>
+      </c>
+      <c r="D42">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>237</v>
+      </c>
+      <c r="C43">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>85</v>
+      </c>
+      <c r="C45">
+        <v>5.5</v>
+      </c>
+      <c r="D45">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47">
+        <v>6.8</v>
+      </c>
+      <c r="D47">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48">
+        <v>8.4</v>
+      </c>
+      <c r="D48">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49">
         <v>7</v>
       </c>
-      <c r="L32" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J33" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33">
-        <v>227</v>
-      </c>
-      <c r="L33">
-        <v>14.2</v>
-      </c>
-      <c r="M33">
-        <v>4.7300000000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J34" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34">
-        <v>198</v>
-      </c>
-      <c r="L34">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K35">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J36" t="s">
-        <v>13</v>
-      </c>
-      <c r="K36">
-        <v>198</v>
-      </c>
-      <c r="L36">
-        <v>12.5</v>
-      </c>
-      <c r="M36">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="37" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J37" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J38" t="s">
-        <v>15</v>
-      </c>
-      <c r="K38">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J39" t="s">
-        <v>2</v>
-      </c>
-      <c r="K39">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J40" t="s">
+      <c r="D49">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50">
+        <v>6.9</v>
+      </c>
+      <c r="D50">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51">
+        <v>3.3</v>
+      </c>
+      <c r="D51">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52">
+        <v>5.6</v>
+      </c>
+      <c r="D52">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53">
+        <v>239</v>
+      </c>
+      <c r="C53">
+        <v>14.9</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54">
+        <v>255</v>
+      </c>
+      <c r="C54">
         <v>16</v>
       </c>
-      <c r="L40">
-        <v>20</v>
-      </c>
-      <c r="M40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J41" t="s">
-        <v>17</v>
-      </c>
-      <c r="L41">
-        <v>12</v>
-      </c>
-      <c r="M41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J42" t="s">
-        <v>18</v>
-      </c>
-      <c r="L42">
-        <v>17.059999999999999</v>
-      </c>
-      <c r="M42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J43" t="s">
-        <v>19</v>
-      </c>
-      <c r="K43">
-        <v>208</v>
-      </c>
-      <c r="L43">
-        <v>13</v>
-      </c>
-      <c r="M43">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="44" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J44" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="45" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J45" t="s">
-        <v>21</v>
-      </c>
-      <c r="K45">
-        <v>125</v>
-      </c>
-      <c r="L45">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J46" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46">
-        <v>216</v>
-      </c>
-      <c r="L46">
-        <v>14</v>
-      </c>
-      <c r="M46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J47" t="s">
-        <v>23</v>
-      </c>
-      <c r="K47">
-        <v>230</v>
-      </c>
-      <c r="L47">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J48" t="s">
-        <v>24</v>
-      </c>
-      <c r="K48">
-        <v>198</v>
-      </c>
-      <c r="L48">
-        <v>14.15</v>
-      </c>
-      <c r="M48">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="49" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J49" t="s">
-        <v>25</v>
-      </c>
-      <c r="K49">
-        <v>237</v>
-      </c>
-      <c r="L49">
-        <v>15</v>
-      </c>
-      <c r="M49">
-        <v>4.93</v>
-      </c>
-    </row>
-    <row r="50" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J50" t="s">
-        <v>26</v>
-      </c>
-      <c r="M50">
-        <v>3.11</v>
-      </c>
-    </row>
-    <row r="51" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J51" t="s">
-        <v>27</v>
-      </c>
-      <c r="K51">
-        <v>85</v>
-      </c>
-      <c r="L51">
-        <v>5.5</v>
-      </c>
-      <c r="M51">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="52" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K52">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J53" t="s">
-        <v>29</v>
-      </c>
-      <c r="L53">
-        <v>6.8</v>
-      </c>
-      <c r="M53">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="54" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J54" t="s">
-        <v>30</v>
-      </c>
-      <c r="L54">
-        <v>8.4</v>
-      </c>
-      <c r="M54">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="55" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J55" t="s">
-        <v>31</v>
-      </c>
-      <c r="L55">
-        <v>7</v>
-      </c>
-      <c r="M55">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J56" t="s">
-        <v>32</v>
-      </c>
-      <c r="L56">
-        <v>6.9</v>
-      </c>
-      <c r="M56">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="57" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J57" t="s">
-        <v>33</v>
-      </c>
-      <c r="L57">
-        <v>3.3</v>
-      </c>
-      <c r="M57">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="58" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J58" t="s">
-        <v>34</v>
-      </c>
-      <c r="L58">
-        <v>5.6</v>
-      </c>
-      <c r="M58">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="59" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J59" t="s">
-        <v>35</v>
-      </c>
-      <c r="K59">
-        <v>239</v>
-      </c>
-      <c r="L59">
-        <v>14.9</v>
-      </c>
-      <c r="M59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J60" t="s">
-        <v>36</v>
-      </c>
-      <c r="K60">
-        <v>255</v>
-      </c>
-      <c r="L60">
-        <v>16</v>
-      </c>
-      <c r="M60">
+      <c r="D54">
         <v>5.3</v>
       </c>
     </row>
@@ -843,8 +790,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>